--- a/gatheringdatas/datasets/dic/replace_list.xlsx
+++ b/gatheringdatas/datasets/dic/replace_list.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Ko7mTz7f5LKNU6Fkvvn3OuJvexFYnXJZcZmTXj4uIv0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="MjHO7RoqC5EVYkdQVP4A++a8OZ/khG0IU2RPYim0nLw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="609">
   <si>
     <t>before_replacement</t>
   </si>
@@ -24,483 +24,447 @@
     <t>after_replacement</t>
   </si>
   <si>
-    <t>S헬스</t>
+    <t>호환</t>
+  </si>
+  <si>
+    <t>연동</t>
+  </si>
+  <si>
+    <t>효과음</t>
+  </si>
+  <si>
+    <t>사운드</t>
+  </si>
+  <si>
+    <t>횟수</t>
+  </si>
+  <si>
+    <t>갯수</t>
+  </si>
+  <si>
+    <t>활동양</t>
+  </si>
+  <si>
+    <t>활동량</t>
+  </si>
+  <si>
+    <t>활동 량</t>
+  </si>
+  <si>
+    <t>환급</t>
+  </si>
+  <si>
+    <t>환불</t>
+  </si>
+  <si>
+    <t>세부</t>
+  </si>
+  <si>
+    <t>디테일</t>
+  </si>
+  <si>
+    <t>핸드폰</t>
+  </si>
+  <si>
+    <t>스마트폰</t>
+  </si>
+  <si>
+    <t>핏빗알타</t>
+  </si>
+  <si>
+    <t>웨어러블</t>
+  </si>
+  <si>
+    <t>핏빗시계</t>
+  </si>
+  <si>
+    <t>피티</t>
+  </si>
+  <si>
+    <t>퍼스널트레이닝</t>
+  </si>
+  <si>
+    <t>품목</t>
+  </si>
+  <si>
+    <t>물건</t>
+  </si>
+  <si>
+    <t>푸시업</t>
+  </si>
+  <si>
+    <t>푸쉬업</t>
+  </si>
+  <si>
+    <t>푸셥</t>
+  </si>
+  <si>
+    <t>페북</t>
+  </si>
+  <si>
+    <t>페이스북</t>
+  </si>
+  <si>
+    <t>패치</t>
+  </si>
+  <si>
+    <t>업데이트</t>
+  </si>
+  <si>
+    <t>팔굽혀 펴기</t>
+  </si>
+  <si>
+    <t>팔 굽혔다가피기</t>
+  </si>
+  <si>
+    <t>팔 굽혔다가 펴기</t>
+  </si>
+  <si>
+    <t>팔 굽혀 피기</t>
+  </si>
+  <si>
+    <t>파이팅</t>
+  </si>
+  <si>
+    <t>화이팅</t>
+  </si>
+  <si>
+    <t>트래커</t>
+  </si>
+  <si>
+    <t>코치</t>
+  </si>
+  <si>
+    <t>코칭</t>
+  </si>
+  <si>
+    <t>코인상자</t>
+  </si>
+  <si>
+    <t>아이템</t>
+  </si>
+  <si>
+    <t>코인박스</t>
+  </si>
+  <si>
+    <t>코인 상자</t>
+  </si>
+  <si>
+    <t>케시</t>
+  </si>
+  <si>
+    <t>포인트</t>
+  </si>
+  <si>
+    <t>컵양</t>
+  </si>
+  <si>
+    <t>컵량</t>
+  </si>
+  <si>
+    <t>컵 량</t>
+  </si>
+  <si>
+    <t>컬처 랜드</t>
+  </si>
+  <si>
+    <t>컬쳐랜드</t>
+  </si>
+  <si>
+    <t>캐시</t>
+  </si>
+  <si>
+    <t>캐쉬</t>
+  </si>
+  <si>
+    <t>후기</t>
+  </si>
+  <si>
+    <t>리뷰</t>
+  </si>
+  <si>
+    <t>칼로리 양</t>
+  </si>
+  <si>
+    <t>칼로리량</t>
+  </si>
+  <si>
+    <t>칼로리 량</t>
+  </si>
+  <si>
+    <t>카톡방</t>
+  </si>
+  <si>
+    <t>채팅방</t>
+  </si>
+  <si>
+    <t>카톡 방</t>
+  </si>
+  <si>
+    <t>카톡</t>
+  </si>
+  <si>
+    <t>카카오톡</t>
+  </si>
+  <si>
+    <t>카카오톡방</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>취침</t>
+  </si>
+  <si>
+    <t>수면</t>
+  </si>
+  <si>
+    <t>초딩</t>
+  </si>
+  <si>
+    <t>초등학생</t>
+  </si>
+  <si>
+    <t>초기화</t>
+  </si>
+  <si>
+    <t>리셋</t>
+  </si>
+  <si>
+    <t>체지방양</t>
+  </si>
+  <si>
+    <t>체지방량</t>
+  </si>
+  <si>
+    <t>체지방 양</t>
+  </si>
+  <si>
+    <t>체지방 량</t>
+  </si>
+  <si>
+    <t>체중감량</t>
+  </si>
+  <si>
+    <t>다이어트</t>
+  </si>
+  <si>
+    <t>체중 감량</t>
+  </si>
+  <si>
+    <t>채팅 방</t>
+  </si>
+  <si>
+    <t>중량운동</t>
+  </si>
+  <si>
+    <t>웨이트트레이닝</t>
+  </si>
+  <si>
+    <t>중량 운동</t>
+  </si>
+  <si>
+    <t>중딩</t>
+  </si>
+  <si>
+    <t>중학생</t>
+  </si>
+  <si>
+    <t>제품</t>
+  </si>
+  <si>
+    <t>장애</t>
+  </si>
+  <si>
+    <t>오류</t>
+  </si>
+  <si>
+    <t>작성</t>
+  </si>
+  <si>
+    <t>입력</t>
+  </si>
+  <si>
+    <t>인스타</t>
+  </si>
+  <si>
+    <t>인스타그램</t>
+  </si>
+  <si>
+    <t>이용자</t>
+  </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>이용</t>
+  </si>
+  <si>
+    <t>사용</t>
+  </si>
+  <si>
+    <t>움직임 량</t>
+  </si>
+  <si>
+    <t>유저</t>
+  </si>
+  <si>
+    <t>유산소 운동</t>
+  </si>
+  <si>
+    <t>유산소운동</t>
+  </si>
+  <si>
+    <t>웨이트 트레이닝</t>
+  </si>
+  <si>
+    <t>웨이트</t>
+  </si>
+  <si>
+    <t>움직임량</t>
+  </si>
+  <si>
+    <t>우리나라</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>우리 나라</t>
+  </si>
+  <si>
+    <t>요금</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>완성</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>연결</t>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>여자</t>
+  </si>
+  <si>
+    <t>엡</t>
+  </si>
+  <si>
+    <t>애플리케이션</t>
+  </si>
+  <si>
+    <t>어플리케이션</t>
+  </si>
+  <si>
+    <t>얘기</t>
+  </si>
+  <si>
+    <t>이야기</t>
+  </si>
+  <si>
+    <t>앱</t>
+  </si>
+  <si>
+    <t>알타</t>
+  </si>
+  <si>
+    <t>아메리카노</t>
+  </si>
+  <si>
+    <t>커피</t>
+  </si>
+  <si>
+    <t>쓸모없</t>
+  </si>
+  <si>
+    <t>무용지물</t>
+  </si>
+  <si>
+    <t>스타벅스</t>
+  </si>
+  <si>
+    <t>스케쥴</t>
+  </si>
+  <si>
+    <t>스케줄</t>
+  </si>
+  <si>
+    <t>스마트워치</t>
+  </si>
+  <si>
+    <t>스마트밴드</t>
+  </si>
+  <si>
+    <t>스마트 워치</t>
+  </si>
+  <si>
+    <t>소모 열량</t>
+  </si>
+  <si>
+    <t>소모열량</t>
+  </si>
+  <si>
+    <t>셋팅</t>
+  </si>
+  <si>
+    <t>설정</t>
+  </si>
+  <si>
+    <t>세팅</t>
+  </si>
+  <si>
+    <t>세트별</t>
+  </si>
+  <si>
+    <t>세트사이</t>
+  </si>
+  <si>
+    <t>세트 수</t>
+  </si>
+  <si>
+    <t>세트 사이</t>
+  </si>
+  <si>
+    <t>세트 별</t>
+  </si>
+  <si>
+    <t>세트 간</t>
+  </si>
+  <si>
+    <t>렉</t>
+  </si>
+  <si>
+    <t>섭취양</t>
+  </si>
+  <si>
+    <t>섭취량</t>
+  </si>
+  <si>
+    <t>섭취 양</t>
+  </si>
+  <si>
+    <t>샤오미 밴드</t>
+  </si>
+  <si>
+    <t>상품권</t>
+  </si>
+  <si>
+    <t>상품</t>
+  </si>
+  <si>
+    <t>삼성 헬스</t>
   </si>
   <si>
     <t>삼성헬스</t>
   </si>
   <si>
-    <t>LG폰</t>
-  </si>
-  <si>
-    <t>스마트폰</t>
-  </si>
-  <si>
-    <t>LG V10</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>GX</t>
-  </si>
-  <si>
-    <t>그룹운동</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>amazfit</t>
-  </si>
-  <si>
-    <t>웨어러블</t>
-  </si>
-  <si>
-    <t>호환</t>
-  </si>
-  <si>
-    <t>연동</t>
-  </si>
-  <si>
-    <t>효과음</t>
-  </si>
-  <si>
-    <t>사운드</t>
-  </si>
-  <si>
-    <t>횟수</t>
-  </si>
-  <si>
-    <t>갯수</t>
-  </si>
-  <si>
-    <t>활동양</t>
-  </si>
-  <si>
-    <t>활동량</t>
-  </si>
-  <si>
-    <t>활동 량</t>
-  </si>
-  <si>
-    <t>환급</t>
-  </si>
-  <si>
-    <t>환불</t>
-  </si>
-  <si>
-    <t>세부</t>
-  </si>
-  <si>
-    <t>디테일</t>
-  </si>
-  <si>
-    <t>핸드폰</t>
-  </si>
-  <si>
-    <t>핏빗알타</t>
-  </si>
-  <si>
-    <t>핏빗시계</t>
-  </si>
-  <si>
-    <t>피티</t>
-  </si>
-  <si>
-    <t>퍼스널트레이닝</t>
-  </si>
-  <si>
-    <t>품목</t>
-  </si>
-  <si>
-    <t>물건</t>
-  </si>
-  <si>
-    <t>푸시업</t>
-  </si>
-  <si>
-    <t>푸쉬업</t>
-  </si>
-  <si>
-    <t>푸셥</t>
-  </si>
-  <si>
-    <t>페북</t>
-  </si>
-  <si>
-    <t>페이스북</t>
-  </si>
-  <si>
-    <t>패치</t>
-  </si>
-  <si>
-    <t>업데이트</t>
-  </si>
-  <si>
-    <t>팔굽혀 펴기</t>
-  </si>
-  <si>
-    <t>팔 굽혔다가피기</t>
-  </si>
-  <si>
-    <t>팔 굽혔다가 펴기</t>
-  </si>
-  <si>
-    <t>팔 굽혀 피기</t>
-  </si>
-  <si>
-    <t>파이팅</t>
-  </si>
-  <si>
-    <t>화이팅</t>
-  </si>
-  <si>
-    <t>트래커</t>
-  </si>
-  <si>
-    <t>코치</t>
-  </si>
-  <si>
-    <t>코칭</t>
-  </si>
-  <si>
-    <t>코인상자</t>
-  </si>
-  <si>
-    <t>아이템</t>
-  </si>
-  <si>
-    <t>코인박스</t>
-  </si>
-  <si>
-    <t>코인 상자</t>
-  </si>
-  <si>
-    <t>케시</t>
-  </si>
-  <si>
-    <t>포인트</t>
-  </si>
-  <si>
-    <t>컵양</t>
-  </si>
-  <si>
-    <t>컵량</t>
-  </si>
-  <si>
-    <t>컵 량</t>
-  </si>
-  <si>
-    <t>컬처 랜드</t>
-  </si>
-  <si>
-    <t>컬쳐랜드</t>
-  </si>
-  <si>
-    <t>캐시</t>
-  </si>
-  <si>
-    <t>캐쉬</t>
-  </si>
-  <si>
-    <t>후기</t>
-  </si>
-  <si>
-    <t>리뷰</t>
-  </si>
-  <si>
-    <t>칼로리 양</t>
-  </si>
-  <si>
-    <t>칼로리량</t>
-  </si>
-  <si>
-    <t>칼로리 량</t>
-  </si>
-  <si>
-    <t>카톡방</t>
-  </si>
-  <si>
-    <t>채팅방</t>
-  </si>
-  <si>
-    <t>카톡 방</t>
-  </si>
-  <si>
-    <t>카톡</t>
-  </si>
-  <si>
-    <t>카카오톡</t>
-  </si>
-  <si>
-    <t>카카오톡방</t>
-  </si>
-  <si>
-    <t>카카오</t>
-  </si>
-  <si>
-    <t>취침</t>
-  </si>
-  <si>
-    <t>수면</t>
-  </si>
-  <si>
-    <t>초딩</t>
-  </si>
-  <si>
-    <t>초등학생</t>
-  </si>
-  <si>
-    <t>초기화</t>
-  </si>
-  <si>
-    <t>리셋</t>
-  </si>
-  <si>
-    <t>체지방양</t>
-  </si>
-  <si>
-    <t>체지방량</t>
-  </si>
-  <si>
-    <t>체지방 양</t>
-  </si>
-  <si>
-    <t>체지방 량</t>
-  </si>
-  <si>
-    <t>체중감량</t>
-  </si>
-  <si>
-    <t>다이어트</t>
-  </si>
-  <si>
-    <t>체중 감량</t>
-  </si>
-  <si>
-    <t>채팅 방</t>
-  </si>
-  <si>
-    <t>중량운동</t>
-  </si>
-  <si>
-    <t>웨이트트레이닝</t>
-  </si>
-  <si>
-    <t>중량 운동</t>
-  </si>
-  <si>
-    <t>중딩</t>
-  </si>
-  <si>
-    <t>중학생</t>
-  </si>
-  <si>
-    <t>제품</t>
-  </si>
-  <si>
-    <t>장애</t>
-  </si>
-  <si>
-    <t>오류</t>
-  </si>
-  <si>
-    <t>작성</t>
-  </si>
-  <si>
-    <t>입력</t>
-  </si>
-  <si>
-    <t>인스타</t>
-  </si>
-  <si>
-    <t>인스타그램</t>
-  </si>
-  <si>
-    <t>이용자</t>
-  </si>
-  <si>
-    <t>사용자</t>
-  </si>
-  <si>
-    <t>이용</t>
-  </si>
-  <si>
-    <t>사용</t>
-  </si>
-  <si>
-    <t>움직임 량</t>
-  </si>
-  <si>
-    <t>유저</t>
-  </si>
-  <si>
-    <t>유산소 운동</t>
-  </si>
-  <si>
-    <t>유산소운동</t>
-  </si>
-  <si>
-    <t>웨이트 트레이닝</t>
-  </si>
-  <si>
-    <t>웨이트</t>
-  </si>
-  <si>
-    <t>움직임량</t>
-  </si>
-  <si>
-    <t>우리나라</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>우리 나라</t>
-  </si>
-  <si>
-    <t>요금</t>
-  </si>
-  <si>
-    <t>가격</t>
-  </si>
-  <si>
-    <t>완성</t>
-  </si>
-  <si>
-    <t>완료</t>
-  </si>
-  <si>
-    <t>연결</t>
-  </si>
-  <si>
-    <t>여성</t>
-  </si>
-  <si>
-    <t>여자</t>
-  </si>
-  <si>
-    <t>엡</t>
-  </si>
-  <si>
-    <t>애플리케이션</t>
-  </si>
-  <si>
-    <t>어플리케이션</t>
-  </si>
-  <si>
-    <t>얘기</t>
-  </si>
-  <si>
-    <t>이야기</t>
-  </si>
-  <si>
-    <t>앱</t>
-  </si>
-  <si>
-    <t>알타</t>
-  </si>
-  <si>
-    <t>아메리카노</t>
-  </si>
-  <si>
-    <t>커피</t>
-  </si>
-  <si>
-    <t>쓸모없</t>
-  </si>
-  <si>
-    <t>무용지물</t>
-  </si>
-  <si>
-    <t>스타벅스</t>
-  </si>
-  <si>
-    <t>스케쥴</t>
-  </si>
-  <si>
-    <t>스케줄</t>
-  </si>
-  <si>
-    <t>스마트워치</t>
-  </si>
-  <si>
-    <t>스마트밴드</t>
-  </si>
-  <si>
-    <t>스마트 워치</t>
-  </si>
-  <si>
-    <t>소모 열량</t>
-  </si>
-  <si>
-    <t>소모열량</t>
-  </si>
-  <si>
-    <t>셋팅</t>
-  </si>
-  <si>
-    <t>설정</t>
-  </si>
-  <si>
-    <t>세팅</t>
-  </si>
-  <si>
-    <t>세트별</t>
-  </si>
-  <si>
-    <t>세트사이</t>
-  </si>
-  <si>
-    <t>세트 수</t>
-  </si>
-  <si>
-    <t>세트 사이</t>
-  </si>
-  <si>
-    <t>세트 별</t>
-  </si>
-  <si>
-    <t>세트 간</t>
-  </si>
-  <si>
-    <t>렉</t>
-  </si>
-  <si>
-    <t>섭취양</t>
-  </si>
-  <si>
-    <t>섭취량</t>
-  </si>
-  <si>
-    <t>섭취 양</t>
-  </si>
-  <si>
-    <t>샤오미 밴드</t>
-  </si>
-  <si>
-    <t>상품권</t>
-  </si>
-  <si>
-    <t>상품</t>
-  </si>
-  <si>
-    <t>삼성 헬스</t>
-  </si>
-  <si>
     <t>살빼</t>
   </si>
   <si>
@@ -1350,7 +1314,7 @@
     <t>좋아졋어여</t>
   </si>
   <si>
-    <t>좋습니다</t>
+    <t>좋다</t>
   </si>
   <si>
     <t>좋은듯</t>
@@ -1498,9 +1462,6 @@
   </si>
   <si>
     <t>낮아지다</t>
-  </si>
-  <si>
-    <t>좋다</t>
   </si>
   <si>
     <t>훌륭하다</t>
@@ -1613,9 +1574,6 @@
     <t>생각보다 괜찮</t>
   </si>
   <si>
-    <t>좋습니다.</t>
-  </si>
-  <si>
     <t>기대이상</t>
   </si>
   <si>
@@ -1857,6 +1815,36 @@
   </si>
   <si>
     <t>게운하게</t>
+  </si>
+  <si>
+    <t>빨라요</t>
+  </si>
+  <si>
+    <t>빠르다</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>pms</t>
+  </si>
+  <si>
+    <t>월경전증후군</t>
+  </si>
+  <si>
+    <t>저렴하게</t>
+  </si>
+  <si>
+    <t>저렴</t>
+  </si>
+  <si>
+    <t>좋아지는것같아요</t>
+  </si>
+  <si>
+    <t>강추합니다</t>
+  </si>
+  <si>
+    <t>빨르다</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1893,7 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF12824D"/>
-      <name val="&quot;Source Code Pro&quot;"/>
+      <name val="Source Code Pro"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1914,7 +1902,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1955,7 +1942,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1973,6 +1960,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -1998,8 +1988,11 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2276,15 +2269,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="1">
@@ -2300,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="1">
@@ -2308,172 +2301,172 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="18.0" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="18.0" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="18.0" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="18.0" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="18.0" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="18.0" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="18.0" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="18.0" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="18.0" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="18.0" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="18.0" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="18.0" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>41</v>
@@ -2481,447 +2474,447 @@
     </row>
     <row r="30" ht="18.0" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="18.0" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="18.0" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="18.0" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" ht="18.0" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="18.0" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="18.0" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="18.0" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" ht="18.0" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" ht="18.0" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" ht="18.0" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" ht="18.0" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" ht="18.0" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" ht="18.0" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" ht="18.0" customHeight="1">
       <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="45" ht="18.0" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" ht="18.0" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" ht="18.0" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" ht="18.0" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="18.0" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" ht="18.0" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" ht="18.0" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" ht="18.0" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" ht="18.0" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="18.0" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" ht="18.0" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" ht="18.0" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="18.0" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" ht="18.0" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="18.0" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" ht="18.0" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" ht="18.0" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="18.0" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" ht="18.0" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" ht="18.0" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="18.0" customHeight="1">
       <c r="A65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="66" ht="18.0" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" ht="18.0" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" ht="18.0" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" ht="18.0" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="18.0" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" ht="18.0" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" ht="18.0" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" ht="18.0" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" ht="18.0" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" ht="18.0" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" ht="18.0" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" ht="18.0" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" ht="18.0" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" ht="18.0" customHeight="1">
       <c r="A79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="80" ht="18.0" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="18.0" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" ht="18.0" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" ht="18.0" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" ht="18.0" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" ht="18.0" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>18</v>
@@ -2929,63 +2922,63 @@
     </row>
     <row r="86" ht="18.0" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="18.0" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="18.0" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" ht="18.0" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" ht="18.0" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" ht="18.0" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" ht="18.0" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" ht="18.0" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>135</v>
@@ -2993,55 +2986,55 @@
     </row>
     <row r="94" ht="18.0" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" ht="18.0" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" ht="18.0" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" ht="18.0" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" ht="18.0" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" ht="18.0" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="18.0" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>145</v>
@@ -3052,7 +3045,7 @@
         <v>146</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="18.0" customHeight="1">
@@ -3068,7 +3061,7 @@
         <v>149</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" ht="18.0" customHeight="1">
@@ -3076,7 +3069,7 @@
         <v>150</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" ht="18.0" customHeight="1">
@@ -3084,220 +3077,220 @@
         <v>151</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" ht="18.0" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" ht="18.0" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" ht="18.0" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" ht="18.0" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" ht="18.0" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" ht="18.0" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" ht="18.0" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" ht="18.0" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" ht="18.0" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" ht="18.0" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" ht="18.0" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" ht="18.0" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" ht="18.0" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" ht="18.0" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" ht="18.0" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="18.0" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="18.0" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" ht="18.0" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" ht="18.0" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" ht="18.0" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" ht="18.0" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" ht="18.0" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" ht="18.0" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" ht="18.0" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" ht="18.0" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" ht="18.0" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" ht="18.0" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>16</v>
@@ -3305,186 +3298,186 @@
     </row>
     <row r="133" ht="18.0" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" ht="18.0" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" ht="18.0" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" ht="18.0" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" ht="18.0" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" ht="18.0" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" ht="18.0" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" ht="18.0" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" ht="18.0" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" ht="18.0" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" ht="18.0" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" ht="18.0" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
     </row>
     <row r="146" ht="18.0" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" ht="18.0" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" ht="18.0" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" ht="18.0" customHeight="1">
       <c r="A149" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="150" ht="18.0" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" ht="18.0" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" ht="18.0" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" ht="18.0" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" ht="18.0" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" ht="18.0" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" ht="18.0" customHeight="1">
@@ -3492,31 +3485,31 @@
         <v>221</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" ht="18.0" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" ht="18.0" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" ht="18.0" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" ht="18.0" customHeight="1">
@@ -3524,140 +3517,140 @@
         <v>225</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="161" ht="18.0" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162" ht="18.0" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" ht="18.0" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" ht="18.0" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" ht="18.0" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" ht="18.0" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" ht="18.0" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" ht="18.0" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
     </row>
     <row r="169" ht="18.0" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170" ht="18.0" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>5</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171" ht="18.0" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" ht="18.0" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" ht="18.0" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="174" ht="18.0" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" ht="18.0" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
     </row>
     <row r="176" ht="18.0" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" ht="18.0" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>16</v>
@@ -3665,58 +3658,58 @@
     </row>
     <row r="178" ht="18.0" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" ht="18.0" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" ht="18.0" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" ht="18.0" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" ht="18.0" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" ht="18.0" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" ht="18.0" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" ht="18.0" customHeight="1">
@@ -3729,7 +3722,7 @@
     </row>
     <row r="186" ht="18.0" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>261</v>
@@ -3737,10 +3730,10 @@
     </row>
     <row r="187" ht="18.0" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" ht="18.0" customHeight="1">
@@ -3748,7 +3741,7 @@
         <v>264</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="189" ht="18.0" customHeight="1">
@@ -3756,7 +3749,7 @@
         <v>265</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" ht="18.0" customHeight="1">
@@ -3764,7 +3757,7 @@
         <v>266</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" ht="18.0" customHeight="1">
@@ -3772,7 +3765,7 @@
         <v>267</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" ht="18.0" customHeight="1">
@@ -3780,7 +3773,7 @@
         <v>268</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" ht="18.0" customHeight="1">
@@ -3788,7 +3781,7 @@
         <v>269</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" ht="18.0" customHeight="1">
@@ -3796,7 +3789,7 @@
         <v>270</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" ht="18.0" customHeight="1">
@@ -3804,47 +3797,47 @@
         <v>271</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" ht="18.0" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" ht="18.0" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>273</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" ht="18.0" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" ht="18.0" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200" ht="18.0" customHeight="1">
       <c r="A200" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="201" ht="18.0" customHeight="1">
@@ -3852,7 +3845,7 @@
         <v>278</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" ht="18.0" customHeight="1">
@@ -3860,407 +3853,407 @@
         <v>279</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>5</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" ht="18.0" customHeight="1">
-      <c r="A203" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>16</v>
+      <c r="A203" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="204" ht="18.0" customHeight="1">
-      <c r="A204" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>5</v>
+      <c r="A204" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="205" ht="18.0" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" ht="18.0" customHeight="1">
-      <c r="A206" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>5</v>
+      <c r="A206" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="207" ht="18.0" customHeight="1">
-      <c r="A207" s="3" t="s">
-        <v>283</v>
+      <c r="A207" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="208" ht="18.0" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" ht="18.0" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
     </row>
     <row r="210" ht="18.0" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" ht="18.0" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212" ht="18.0" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" ht="18.0" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="214" ht="18.0" customHeight="1">
       <c r="A214" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>294</v>
+        <v>300</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="215" ht="18.0" customHeight="1">
       <c r="A215" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>294</v>
+        <v>301</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="216" ht="18.0" customHeight="1">
-      <c r="A216" s="3" t="s">
-        <v>296</v>
+      <c r="A216" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="217" ht="18.0" customHeight="1">
       <c r="A217" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="218" ht="18.0" customHeight="1">
       <c r="A218" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" ht="18.0" customHeight="1">
-      <c r="A219" s="3" t="s">
-        <v>302</v>
+      <c r="A219" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="220" ht="18.0" customHeight="1">
-      <c r="A220" s="3" t="s">
-        <v>304</v>
+      <c r="A220" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" ht="18.0" customHeight="1">
-      <c r="A221" s="3" t="s">
-        <v>306</v>
+      <c r="A221" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" ht="18.0" customHeight="1">
-      <c r="A222" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B222" s="3" t="s">
+      <c r="A222" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="223" ht="18.0" customHeight="1">
+      <c r="A223" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="223" ht="18.0" customHeight="1">
-      <c r="A223" s="3" t="s">
+      <c r="B223" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B223" s="3" t="s">
+    </row>
+    <row r="224" ht="18.0" customHeight="1">
+      <c r="A224" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="224" ht="18.0" customHeight="1">
-      <c r="A224" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>310</v>
+      <c r="B224" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="225" ht="18.0" customHeight="1">
       <c r="A225" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="226" ht="18.0" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>310</v>
+      <c r="B226" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="227" ht="18.0" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>310</v>
+      <c r="B227" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="228" ht="18.0" customHeight="1">
       <c r="A228" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B228" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="229" ht="18.0" customHeight="1">
       <c r="A229" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B229" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="230" ht="18.0" customHeight="1">
       <c r="A230" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B230" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="231" ht="18.0" customHeight="1">
       <c r="A231" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B231" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="232" ht="18.0" customHeight="1">
       <c r="A232" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B232" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="233" ht="18.0" customHeight="1">
       <c r="A233" s="4" t="s">
-        <v>160</v>
+        <v>321</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
     </row>
     <row r="234" ht="18.0" customHeight="1">
       <c r="A234" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="235" ht="18.0" customHeight="1">
       <c r="A235" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="236" ht="18.0" customHeight="1">
       <c r="A236" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="237" ht="18.0" customHeight="1">
       <c r="A237" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="238" ht="18.0" customHeight="1">
       <c r="A238" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="239" ht="18.0" customHeight="1">
       <c r="A239" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="240" ht="18.0" customHeight="1">
       <c r="A240" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" ht="18.0" customHeight="1">
       <c r="A241" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="242" ht="18.0" customHeight="1">
       <c r="A242" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="243" ht="18.0" customHeight="1">
       <c r="A243" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="244" ht="18.0" customHeight="1">
       <c r="A244" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="245" ht="18.0" customHeight="1">
       <c r="A245" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="246" ht="18.0" customHeight="1">
       <c r="A246" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="247" ht="18.0" customHeight="1">
       <c r="A247" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="248" ht="18.0" customHeight="1">
       <c r="A248" s="4" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="249" ht="18.0" customHeight="1">
       <c r="A249" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="250" ht="18.0" customHeight="1">
       <c r="A250" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="251" ht="18.0" customHeight="1">
       <c r="A251" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="252" ht="18.0" customHeight="1">
       <c r="A252" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="253" ht="18.0" customHeight="1">
@@ -4268,621 +4261,643 @@
         <v>346</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="254" ht="18.0" customHeight="1">
       <c r="A254" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="255" ht="18.0" customHeight="1">
       <c r="A255" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="256" ht="18.0" customHeight="1">
       <c r="A256" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="257" ht="18.0" customHeight="1">
       <c r="A257" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>349</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" ht="18.0" customHeight="1">
       <c r="A258" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>349</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" ht="18.0" customHeight="1">
       <c r="A259" s="4" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>327</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" ht="18.0" customHeight="1">
       <c r="A260" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>327</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
     </row>
     <row r="261" ht="18.0" customHeight="1">
       <c r="A261" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
     </row>
     <row r="262" ht="18.0" customHeight="1">
       <c r="A262" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
     </row>
     <row r="263" ht="18.0" customHeight="1">
       <c r="A263" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
     </row>
     <row r="264" ht="18.0" customHeight="1">
       <c r="A264" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>359</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
     </row>
     <row r="265" ht="18.0" customHeight="1">
       <c r="A265" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>361</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
     </row>
     <row r="266" ht="18.0" customHeight="1">
       <c r="A266" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>363</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
     </row>
     <row r="267" ht="18.0" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>364</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>365</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
     </row>
     <row r="268" ht="18.0" customHeight="1">
       <c r="A268" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
     </row>
     <row r="269" ht="18.0" customHeight="1">
       <c r="A269" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
     </row>
     <row r="270" ht="18.0" customHeight="1">
       <c r="A270" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
     </row>
     <row r="271" ht="18.0" customHeight="1">
       <c r="A271" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
     <row r="272" ht="18.0" customHeight="1">
       <c r="A272" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
     <row r="273" ht="18.0" customHeight="1">
       <c r="A273" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
     <row r="274" ht="18.0" customHeight="1">
       <c r="A274" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
     <row r="275" ht="18.0" customHeight="1">
       <c r="A275" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
     <row r="276" ht="18.0" customHeight="1">
       <c r="A276" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
     <row r="277" ht="18.0" customHeight="1">
       <c r="A277" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
     <row r="278" ht="18.0" customHeight="1">
       <c r="A278" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
     <row r="279" ht="18.0" customHeight="1">
       <c r="A279" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
     <row r="280" ht="18.0" customHeight="1">
       <c r="A280" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
     <row r="281" ht="18.0" customHeight="1">
       <c r="A281" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
     <row r="282" ht="18.0" customHeight="1">
       <c r="A282" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
     <row r="283" ht="18.0" customHeight="1">
       <c r="A283" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
     <row r="284" ht="18.0" customHeight="1">
       <c r="A284" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
     <row r="285" ht="18.0" customHeight="1">
       <c r="A285" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
     <row r="286" ht="18.0" customHeight="1">
       <c r="A286" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
     <row r="287" ht="18.0" customHeight="1">
       <c r="A287" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
     <row r="288" ht="18.0" customHeight="1">
       <c r="A288" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
     <row r="289" ht="18.0" customHeight="1">
       <c r="A289" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
     <row r="290" ht="18.0" customHeight="1">
       <c r="A290" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
     <row r="291" ht="18.0" customHeight="1">
       <c r="A291" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
     <row r="292" ht="18.0" customHeight="1">
       <c r="A292" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
     <row r="293" ht="18.0" customHeight="1">
       <c r="A293" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
     <row r="294" ht="18.0" customHeight="1">
       <c r="A294" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
     <row r="295" ht="18.0" customHeight="1">
       <c r="A295" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
     <row r="296" ht="18.0" customHeight="1">
       <c r="A296" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
     <row r="297" ht="18.0" customHeight="1">
       <c r="A297" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
     <row r="298" ht="18.0" customHeight="1">
       <c r="A298" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
     <row r="299" ht="18.0" customHeight="1">
       <c r="A299" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
     <row r="300" ht="18.0" customHeight="1">
       <c r="A300" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
     <row r="301" ht="18.0" customHeight="1">
       <c r="A301" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
     <row r="302" ht="18.0" customHeight="1">
       <c r="A302" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
     <row r="303" ht="18.0" customHeight="1">
       <c r="A303" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
     <row r="304" ht="18.0" customHeight="1">
       <c r="A304" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
     </row>
     <row r="305" ht="18.0" customHeight="1">
       <c r="A305" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
     </row>
     <row r="306" ht="18.0" customHeight="1">
       <c r="A306" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
     </row>
     <row r="307" ht="18.0" customHeight="1">
       <c r="A307" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
     </row>
     <row r="308" ht="18.0" customHeight="1">
       <c r="A308" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
     </row>
     <row r="309" ht="18.0" customHeight="1">
       <c r="A309" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
     </row>
     <row r="310" ht="18.0" customHeight="1">
       <c r="A310" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
     </row>
     <row r="311" ht="18.0" customHeight="1">
       <c r="A311" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
     </row>
     <row r="312" ht="18.0" customHeight="1">
       <c r="A312" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
     </row>
     <row r="313" ht="18.0" customHeight="1">
       <c r="A313" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
     </row>
     <row r="314" ht="18.0" customHeight="1">
       <c r="A314" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
     </row>
     <row r="315" ht="18.0" customHeight="1">
       <c r="A315" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
     </row>
     <row r="316" ht="18.0" customHeight="1">
       <c r="A316" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
     </row>
     <row r="317" ht="18.0" customHeight="1">
       <c r="A317" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
     </row>
     <row r="318" ht="18.0" customHeight="1">
       <c r="A318" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -4892,104 +4907,104 @@
         <v>412</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
     </row>
     <row r="320" ht="18.0" customHeight="1">
       <c r="A320" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
     </row>
     <row r="321" ht="18.0" customHeight="1">
       <c r="A321" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
     </row>
     <row r="322" ht="18.0" customHeight="1">
       <c r="A322" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
     </row>
     <row r="323" ht="18.0" customHeight="1">
       <c r="A323" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
     </row>
     <row r="324" ht="18.0" customHeight="1">
       <c r="A324" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
     </row>
     <row r="325" ht="18.0" customHeight="1">
       <c r="A325" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
     </row>
     <row r="326" ht="18.0" customHeight="1">
       <c r="A326" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
     </row>
     <row r="327" ht="18.0" customHeight="1">
       <c r="A327" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
     </row>
     <row r="328" ht="18.0" customHeight="1">
       <c r="A328" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
     </row>
     <row r="329" ht="18.0" customHeight="1">
       <c r="A329" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>422</v>
@@ -4999,7 +5014,7 @@
     </row>
     <row r="330" ht="18.0" customHeight="1">
       <c r="A330" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>422</v>
@@ -5009,7 +5024,7 @@
     </row>
     <row r="331" ht="18.0" customHeight="1">
       <c r="A331" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>422</v>
@@ -5019,7 +5034,7 @@
     </row>
     <row r="332" ht="18.0" customHeight="1">
       <c r="A332" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>422</v>
@@ -5029,7 +5044,7 @@
     </row>
     <row r="333" ht="18.0" customHeight="1">
       <c r="A333" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>422</v>
@@ -5039,7 +5054,7 @@
     </row>
     <row r="334" ht="18.0" customHeight="1">
       <c r="A334" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>422</v>
@@ -5049,7 +5064,7 @@
     </row>
     <row r="335" ht="18.0" customHeight="1">
       <c r="A335" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>422</v>
@@ -5059,7 +5074,7 @@
     </row>
     <row r="336" ht="18.0" customHeight="1">
       <c r="A336" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>422</v>
@@ -5069,30 +5084,30 @@
     </row>
     <row r="337" ht="18.0" customHeight="1">
       <c r="A337" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
     </row>
     <row r="338" ht="18.0" customHeight="1">
       <c r="A338" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
     </row>
     <row r="339" ht="18.0" customHeight="1">
-      <c r="A339" s="4" t="s">
+      <c r="A339" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B339" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
@@ -5101,78 +5116,78 @@
       <c r="A340" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B340" s="4" t="s">
-        <v>434</v>
+      <c r="B340" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
     </row>
     <row r="341" ht="18.0" customHeight="1">
       <c r="A341" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
     </row>
     <row r="342" ht="18.0" customHeight="1">
       <c r="A342" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
     </row>
     <row r="343" ht="18.0" customHeight="1">
       <c r="A343" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
     </row>
     <row r="344" ht="18.0" customHeight="1">
       <c r="A344" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
     </row>
     <row r="345" ht="18.0" customHeight="1">
       <c r="A345" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
     </row>
     <row r="346" ht="18.0" customHeight="1">
       <c r="A346" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
     </row>
     <row r="347" ht="18.0" customHeight="1">
       <c r="A347" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
@@ -5182,7 +5197,7 @@
         <v>441</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
@@ -5192,1344 +5207,1310 @@
         <v>442</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
     </row>
     <row r="350" ht="18.0" customHeight="1">
-      <c r="A350" s="5" t="s">
+      <c r="A350" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>444</v>
+      <c r="B350" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
     </row>
     <row r="351" ht="18.0" customHeight="1">
-      <c r="A351" s="6" t="s">
+      <c r="A351" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B351" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
     </row>
     <row r="352" ht="18.0" customHeight="1">
       <c r="A352" s="4" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
     </row>
     <row r="353" ht="18.0" customHeight="1">
       <c r="A353" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
     </row>
     <row r="354" ht="18.0" customHeight="1">
       <c r="A354" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
     </row>
     <row r="355" ht="18.0" customHeight="1">
       <c r="A355" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
     </row>
     <row r="356" ht="18.0" customHeight="1">
       <c r="A356" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
     </row>
     <row r="357" ht="18.0" customHeight="1">
       <c r="A357" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
     </row>
     <row r="358" ht="18.0" customHeight="1">
       <c r="A358" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
     </row>
     <row r="359" ht="18.0" customHeight="1">
       <c r="A359" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
     </row>
     <row r="360" ht="18.0" customHeight="1">
       <c r="A360" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
     </row>
     <row r="361" ht="18.0" customHeight="1">
       <c r="A361" s="4" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
     </row>
     <row r="362" ht="18.0" customHeight="1">
       <c r="A362" s="4" t="s">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>457</v>
+        <v>357</v>
       </c>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
     </row>
     <row r="363" ht="18.0" customHeight="1">
       <c r="A363" s="4" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
     </row>
     <row r="364" ht="18.0" customHeight="1">
       <c r="A364" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
     </row>
     <row r="365" ht="18.0" customHeight="1">
       <c r="A365" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
     </row>
     <row r="366" ht="18.0" customHeight="1">
       <c r="A366" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
     </row>
     <row r="367" ht="18.0" customHeight="1">
       <c r="A367" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
     </row>
     <row r="368" ht="18.0" customHeight="1">
       <c r="A368" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
     </row>
     <row r="369" ht="18.0" customHeight="1">
       <c r="A369" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
     </row>
     <row r="370" ht="18.0" customHeight="1">
       <c r="A370" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
+        <v>462</v>
+      </c>
     </row>
     <row r="371" ht="18.0" customHeight="1">
       <c r="A371" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C371" s="5"/>
-      <c r="D371" s="5"/>
+        <v>462</v>
+      </c>
     </row>
     <row r="372" ht="18.0" customHeight="1">
       <c r="A372" s="4" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C372" s="5"/>
-      <c r="D372" s="5"/>
+        <v>465</v>
+      </c>
     </row>
     <row r="373" ht="18.0" customHeight="1">
       <c r="A373" s="4" t="s">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C373" s="5"/>
-      <c r="D373" s="5"/>
+        <v>465</v>
+      </c>
     </row>
     <row r="374" ht="18.0" customHeight="1">
       <c r="A374" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C374" s="5"/>
-      <c r="D374" s="5"/>
+        <v>465</v>
+      </c>
     </row>
     <row r="375" ht="18.0" customHeight="1">
       <c r="A375" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
+        <v>469</v>
+      </c>
     </row>
     <row r="376" ht="18.0" customHeight="1">
       <c r="A376" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
+        <v>469</v>
+      </c>
     </row>
     <row r="377" ht="18.0" customHeight="1">
       <c r="A377" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B377" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B377" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C377" s="5"/>
-      <c r="D377" s="5"/>
     </row>
     <row r="378" ht="18.0" customHeight="1">
       <c r="A378" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C378" s="5"/>
-      <c r="D378" s="5"/>
+        <v>473</v>
+      </c>
     </row>
     <row r="379" ht="18.0" customHeight="1">
       <c r="A379" s="4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C379" s="5"/>
-      <c r="D379" s="5"/>
+        <v>473</v>
+      </c>
     </row>
     <row r="380" ht="18.0" customHeight="1">
       <c r="A380" s="4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
+        <v>473</v>
+      </c>
     </row>
     <row r="381" ht="18.0" customHeight="1">
       <c r="A381" s="4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" ht="18.0" customHeight="1">
       <c r="A382" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="383" ht="18.0" customHeight="1">
       <c r="A383" s="4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="384" ht="18.0" customHeight="1">
       <c r="A384" s="4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" ht="18.0" customHeight="1">
       <c r="A385" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>477</v>
+        <v>432</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="386" ht="18.0" customHeight="1">
       <c r="A386" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="387" ht="18.0" customHeight="1">
       <c r="A387" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B387" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="388" ht="18.0" customHeight="1">
       <c r="A388" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B388" s="4" t="s">
-        <v>481</v>
+        <v>484</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="389" ht="18.0" customHeight="1">
       <c r="A389" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B389" s="4" t="s">
         <v>485</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="390" ht="18.0" customHeight="1">
       <c r="A390" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B390" s="4" t="s">
-        <v>485</v>
+      <c r="B390" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="391" ht="18.0" customHeight="1">
-      <c r="A391" s="4" t="s">
+      <c r="A391" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="B391" s="4" t="s">
-        <v>485</v>
-      </c>
+      <c r="B391" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4"/>
+      <c r="E391" s="4"/>
+      <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
+      <c r="H391" s="4"/>
+      <c r="I391" s="4"/>
+      <c r="J391" s="4"/>
+      <c r="K391" s="4"/>
+      <c r="L391" s="4"/>
+      <c r="M391" s="4"/>
+      <c r="N391" s="4"/>
+      <c r="O391" s="4"/>
+      <c r="P391" s="4"/>
+      <c r="Q391" s="4"/>
+      <c r="R391" s="4"/>
+      <c r="S391" s="4"/>
+      <c r="T391" s="4"/>
+      <c r="U391" s="4"/>
+      <c r="V391" s="4"/>
+      <c r="W391" s="4"/>
+      <c r="X391" s="4"/>
+      <c r="Y391" s="4"/>
+      <c r="Z391" s="4"/>
     </row>
     <row r="392" ht="18.0" customHeight="1">
-      <c r="A392" s="4" t="s">
+      <c r="A392" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="B392" s="4" t="s">
+      <c r="B392" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+      <c r="E392" s="4"/>
+      <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
+      <c r="H392" s="4"/>
+      <c r="I392" s="4"/>
+      <c r="J392" s="4"/>
+      <c r="K392" s="4"/>
+      <c r="L392" s="4"/>
+      <c r="M392" s="4"/>
+      <c r="N392" s="4"/>
+      <c r="O392" s="4"/>
+      <c r="P392" s="4"/>
+      <c r="Q392" s="4"/>
+      <c r="R392" s="4"/>
+      <c r="S392" s="4"/>
+      <c r="T392" s="4"/>
+      <c r="U392" s="4"/>
+      <c r="V392" s="4"/>
+      <c r="W392" s="4"/>
+      <c r="X392" s="4"/>
+      <c r="Y392" s="4"/>
+      <c r="Z392" s="4"/>
+    </row>
+    <row r="393" ht="18.0" customHeight="1">
+      <c r="A393" s="8" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="393" ht="18.0" customHeight="1">
-      <c r="A393" s="4" t="s">
+      <c r="B393" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
+      <c r="H393" s="4"/>
+      <c r="I393" s="4"/>
+      <c r="J393" s="4"/>
+      <c r="K393" s="4"/>
+      <c r="L393" s="4"/>
+      <c r="M393" s="4"/>
+      <c r="N393" s="4"/>
+      <c r="O393" s="4"/>
+      <c r="P393" s="4"/>
+      <c r="Q393" s="4"/>
+      <c r="R393" s="4"/>
+      <c r="S393" s="4"/>
+      <c r="T393" s="4"/>
+      <c r="U393" s="4"/>
+      <c r="V393" s="4"/>
+      <c r="W393" s="4"/>
+      <c r="X393" s="4"/>
+      <c r="Y393" s="4"/>
+      <c r="Z393" s="4"/>
+    </row>
+    <row r="394" ht="18.0" customHeight="1">
+      <c r="A394" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B393" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="394" ht="18.0" customHeight="1">
-      <c r="A394" s="4" t="s">
+      <c r="B394" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="395" ht="18.0" customHeight="1">
+      <c r="A395" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B395" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="396" ht="18.0" customHeight="1">
+      <c r="A396" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="395" ht="18.0" customHeight="1">
-      <c r="A395" s="4" t="s">
+      <c r="B396" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="397" ht="18.0" customHeight="1">
+      <c r="A397" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B395" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="396" ht="18.0" customHeight="1">
-      <c r="A396" s="4" t="s">
+      <c r="B397" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="398" ht="18.0" customHeight="1">
+      <c r="A398" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="B396" s="4" t="s">
+      <c r="B398" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="399" ht="18.0" customHeight="1">
+      <c r="A399" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="400" ht="18.0" customHeight="1">
+      <c r="A400" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="401" ht="18.0" customHeight="1">
+      <c r="A401" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="402" ht="18.0" customHeight="1">
+      <c r="A402" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="403" ht="18.0" customHeight="1">
+      <c r="A403" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="404" ht="18.0" customHeight="1">
+      <c r="A404" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="405" ht="18.0" customHeight="1">
+      <c r="A405" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="406" ht="18.0" customHeight="1">
+      <c r="A406" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="407" ht="18.0" customHeight="1">
+      <c r="A407" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="408" ht="18.0" customHeight="1">
+      <c r="A408" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="409" ht="18.0" customHeight="1">
+      <c r="A409" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="410" ht="18.0" customHeight="1">
+      <c r="A410" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="411" ht="18.0" customHeight="1">
+      <c r="A411" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="412" ht="18.0" customHeight="1">
+      <c r="A412" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="413" ht="18.0" customHeight="1">
+      <c r="A413" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="414" ht="18.0" customHeight="1">
+      <c r="A414" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="415" ht="18.0" customHeight="1">
+      <c r="A415" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="416" ht="18.0" customHeight="1">
+      <c r="A416" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="417" ht="18.0" customHeight="1">
+      <c r="A417" s="9" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="397" ht="18.0" customHeight="1">
-      <c r="A397" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B397" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="398" ht="18.0" customHeight="1">
-      <c r="A398" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="399" ht="18.0" customHeight="1">
-      <c r="A399" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="400" ht="18.0" customHeight="1">
-      <c r="A400" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B400" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="401" ht="18.0" customHeight="1">
-      <c r="A401" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="402" ht="18.0" customHeight="1">
-      <c r="A402" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="4"/>
-      <c r="F402" s="4"/>
-      <c r="G402" s="4"/>
-      <c r="H402" s="4"/>
-      <c r="I402" s="4"/>
-      <c r="J402" s="4"/>
-      <c r="K402" s="4"/>
-      <c r="L402" s="4"/>
-      <c r="M402" s="4"/>
-      <c r="N402" s="4"/>
-      <c r="O402" s="4"/>
-      <c r="P402" s="4"/>
-      <c r="Q402" s="4"/>
-      <c r="R402" s="4"/>
-      <c r="S402" s="4"/>
-      <c r="T402" s="4"/>
-      <c r="U402" s="4"/>
-      <c r="V402" s="4"/>
-      <c r="W402" s="4"/>
-      <c r="X402" s="4"/>
-      <c r="Y402" s="4"/>
-      <c r="Z402" s="4"/>
-    </row>
-    <row r="403" ht="18.0" customHeight="1">
-      <c r="A403" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="4"/>
-      <c r="F403" s="4"/>
-      <c r="G403" s="4"/>
-      <c r="H403" s="4"/>
-      <c r="I403" s="4"/>
-      <c r="J403" s="4"/>
-      <c r="K403" s="4"/>
-      <c r="L403" s="4"/>
-      <c r="M403" s="4"/>
-      <c r="N403" s="4"/>
-      <c r="O403" s="4"/>
-      <c r="P403" s="4"/>
-      <c r="Q403" s="4"/>
-      <c r="R403" s="4"/>
-      <c r="S403" s="4"/>
-      <c r="T403" s="4"/>
-      <c r="U403" s="4"/>
-      <c r="V403" s="4"/>
-      <c r="W403" s="4"/>
-      <c r="X403" s="4"/>
-      <c r="Y403" s="4"/>
-      <c r="Z403" s="4"/>
-    </row>
-    <row r="404" ht="18.0" customHeight="1">
-      <c r="A404" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
-      <c r="E404" s="4"/>
-      <c r="F404" s="4"/>
-      <c r="G404" s="4"/>
-      <c r="H404" s="4"/>
-      <c r="I404" s="4"/>
-      <c r="J404" s="4"/>
-      <c r="K404" s="4"/>
-      <c r="L404" s="4"/>
-      <c r="M404" s="4"/>
-      <c r="N404" s="4"/>
-      <c r="O404" s="4"/>
-      <c r="P404" s="4"/>
-      <c r="Q404" s="4"/>
-      <c r="R404" s="4"/>
-      <c r="S404" s="4"/>
-      <c r="T404" s="4"/>
-      <c r="U404" s="4"/>
-      <c r="V404" s="4"/>
-      <c r="W404" s="4"/>
-      <c r="X404" s="4"/>
-      <c r="Y404" s="4"/>
-      <c r="Z404" s="4"/>
-    </row>
-    <row r="405" ht="18.0" customHeight="1">
-      <c r="A405" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="B405" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="406" ht="18.0" customHeight="1">
-      <c r="A406" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="B406" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="407" ht="18.0" customHeight="1">
-      <c r="A407" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B407" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="408" ht="18.0" customHeight="1">
-      <c r="A408" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B408" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="409" ht="18.0" customHeight="1">
-      <c r="A409" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B409" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="410" ht="18.0" customHeight="1">
-      <c r="A410" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B410" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="411" ht="18.0" customHeight="1">
-      <c r="A411" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="B411" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="412" ht="18.0" customHeight="1">
-      <c r="A412" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="413" ht="18.0" customHeight="1">
-      <c r="A413" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="414" ht="18.0" customHeight="1">
-      <c r="A414" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="415" ht="18.0" customHeight="1">
-      <c r="A415" s="8" t="s">
+      <c r="B417" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="418" ht="18.0" customHeight="1">
+      <c r="A418" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="419" ht="18.0" customHeight="1">
+      <c r="A419" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B415" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="416" ht="18.0" customHeight="1">
-      <c r="A416" s="8" t="s">
+      <c r="B419" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="420" ht="18.0" customHeight="1">
+      <c r="A420" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="B416" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="417" ht="18.0" customHeight="1">
-      <c r="A417" s="8" t="s">
+      <c r="B420" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="421" ht="18.0" customHeight="1">
+      <c r="A421" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B417" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="418" ht="18.0" customHeight="1">
-      <c r="A418" s="8" t="s">
+      <c r="B421" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="422" ht="18.0" customHeight="1">
+      <c r="A422" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B418" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="419" ht="18.0" customHeight="1">
-      <c r="A419" s="8" t="s">
+      <c r="B422" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="423" ht="18.0" customHeight="1">
+      <c r="A423" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="B419" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="420" ht="18.0" customHeight="1">
-      <c r="A420" s="8" t="s">
+      <c r="B423" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="424" ht="18.0" customHeight="1">
+      <c r="A424" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B420" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="421" ht="18.0" customHeight="1">
-      <c r="A421" s="8" t="s">
+      <c r="B424" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="425" ht="18.0" customHeight="1">
+      <c r="A425" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B421" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="422" ht="18.0" customHeight="1">
-      <c r="A422" s="8" t="s">
+      <c r="B425" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B422" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="423" ht="18.0" customHeight="1">
-      <c r="A423" s="9" t="s">
+    </row>
+    <row r="426" ht="18.0" customHeight="1">
+      <c r="A426" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B423" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="424" ht="18.0" customHeight="1">
-      <c r="A424" s="9" t="s">
+      <c r="B426" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="427" ht="18.0" customHeight="1">
+      <c r="A427" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="B424" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="425" ht="18.0" customHeight="1">
-      <c r="A425" s="8" t="s">
+      <c r="B427" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="428" ht="18.0" customHeight="1">
+      <c r="A428" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="B425" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="426" ht="18.0" customHeight="1">
-      <c r="A426" s="8" t="s">
+      <c r="B428" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="429" ht="18.0" customHeight="1">
+      <c r="A429" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B426" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="427" ht="18.0" customHeight="1">
-      <c r="A427" s="8" t="s">
+      <c r="B429" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="430" ht="18.0" customHeight="1">
+      <c r="A430" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B427" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="428" ht="18.0" customHeight="1">
-      <c r="A428" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="429" ht="18.0" customHeight="1">
-      <c r="A429" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="430" ht="18.0" customHeight="1">
-      <c r="A430" s="8" t="s">
+      <c r="B430" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="431" ht="18.0" customHeight="1">
+      <c r="A431" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B430" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="431" ht="18.0" customHeight="1">
-      <c r="A431" s="8" t="s">
+      <c r="B431" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="432" ht="18.0" customHeight="1">
+      <c r="A432" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B431" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="432" ht="18.0" customHeight="1">
-      <c r="A432" s="8" t="s">
+      <c r="B432" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="433" ht="18.0" customHeight="1">
+      <c r="A433" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B432" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="433" ht="18.0" customHeight="1">
-      <c r="A433" s="8" t="s">
+      <c r="B433" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="434" ht="18.0" customHeight="1">
+      <c r="A434" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="434" ht="18.0" customHeight="1">
-      <c r="A434" s="10" t="s">
+      <c r="B434" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="435" ht="18.0" customHeight="1">
+      <c r="A435" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="B434" s="4" t="s">
+      <c r="B435" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="436" ht="18.0" customHeight="1">
+      <c r="A436" s="12" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="435" ht="18.0" customHeight="1">
-      <c r="A435" s="10" t="s">
+      <c r="B436" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="437" ht="18.0" customHeight="1">
+      <c r="A437" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="436" ht="18.0" customHeight="1">
-      <c r="A436" s="10" t="s">
+      <c r="B437" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="438" ht="18.0" customHeight="1">
+      <c r="A438" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="B436" s="4" t="s">
+      <c r="B438" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="439" ht="18.0" customHeight="1">
+      <c r="A439" s="12" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="437" ht="18.0" customHeight="1">
-      <c r="A437" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="B437" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="438" ht="18.0" customHeight="1">
-      <c r="A438" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="B438" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="439" ht="18.0" customHeight="1">
-      <c r="A439" s="10" t="s">
-        <v>537</v>
-      </c>
       <c r="B439" s="4" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="440" ht="18.0" customHeight="1">
       <c r="A440" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="441" ht="18.0" customHeight="1">
       <c r="A441" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="442" ht="18.0" customHeight="1">
+      <c r="A442" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B442" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="443" ht="18.0" customHeight="1">
+      <c r="A443" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B443" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="B441" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="442" ht="18.0" customHeight="1">
-      <c r="A442" s="4" t="s">
+    </row>
+    <row r="444" ht="18.0" customHeight="1">
+      <c r="A444" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="B442" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="443" ht="18.0" customHeight="1">
-      <c r="A443" s="4" t="s">
+      <c r="B444" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="B443" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="444" ht="18.0" customHeight="1">
-      <c r="A444" s="4" t="s">
+    </row>
+    <row r="445" ht="18.0" customHeight="1">
+      <c r="A445" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="B444" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="445" ht="18.0" customHeight="1">
-      <c r="A445" s="11" t="s">
+      <c r="B445" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="B445" s="4" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="446" ht="18.0" customHeight="1">
-      <c r="A446" s="11" t="s">
+      <c r="A446" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="B446" s="4" t="s">
-        <v>534</v>
+      <c r="B446" s="14" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="447" ht="18.0" customHeight="1">
-      <c r="A447" s="11" t="s">
+      <c r="A447" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="448" ht="18.0" customHeight="1">
+      <c r="A448" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="449" ht="18.0" customHeight="1">
+      <c r="A449" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B449" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="B447" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="448" ht="18.0" customHeight="1">
-      <c r="A448" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B448" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="449" ht="18.0" customHeight="1">
-      <c r="A449" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B449" s="4" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="450" ht="18.0" customHeight="1">
-      <c r="A450" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B450" s="4" t="s">
-        <v>534</v>
+      <c r="A450" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="451" ht="18.0" customHeight="1">
-      <c r="A451" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="B451" s="4" t="s">
-        <v>534</v>
+      <c r="A451" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B451" s="15" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="452" ht="18.0" customHeight="1">
-      <c r="A452" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B452" s="4" t="s">
-        <v>534</v>
+      <c r="A452" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B452" s="14" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="453" ht="18.0" customHeight="1">
-      <c r="A453" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="B453" s="13" t="s">
-        <v>526</v>
+      <c r="A453" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="454" ht="18.0" customHeight="1">
-      <c r="A454" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="B454" s="13" t="s">
-        <v>553</v>
+      <c r="A454" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="455" ht="18.0" customHeight="1">
-      <c r="A455" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="B455" s="13" t="s">
-        <v>555</v>
+      <c r="A455" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="456" ht="18.0" customHeight="1">
-      <c r="A456" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="B456" s="13" t="s">
-        <v>557</v>
+      <c r="A456" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="457" ht="18.0" customHeight="1">
-      <c r="A457" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="B457" s="13" t="s">
+      <c r="A457" s="4" t="s">
         <v>559</v>
       </c>
+      <c r="B457" s="4" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="458" ht="18.0" customHeight="1">
-      <c r="A458" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="B458" s="13" t="s">
-        <v>521</v>
+      <c r="A458" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="459" ht="18.0" customHeight="1">
-      <c r="A459" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="B459" s="13" t="s">
-        <v>521</v>
+      <c r="A459" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="460" ht="18.0" customHeight="1">
-      <c r="A460" s="13" t="s">
+      <c r="A460" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B460" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B460" s="13" t="s">
-        <v>559</v>
-      </c>
     </row>
     <row r="461" ht="18.0" customHeight="1">
-      <c r="A461" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B461" s="13" t="s">
-        <v>559</v>
+      <c r="A461" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="462" ht="18.0" customHeight="1">
-      <c r="A462" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="B462" s="13" t="s">
-        <v>444</v>
+      <c r="A462" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="463" ht="18.0" customHeight="1">
-      <c r="A463" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="B463" s="13" t="s">
-        <v>566</v>
+      <c r="A463" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="464" ht="18.0" customHeight="1">
-      <c r="A464" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="B464" s="13" t="s">
-        <v>568</v>
+      <c r="A464" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B464" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="465" ht="18.0" customHeight="1">
-      <c r="A465" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>444</v>
+      <c r="A465" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="466" ht="18.0" customHeight="1">
-      <c r="A466" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B466" s="6" t="s">
+      <c r="A466" s="4" t="s">
         <v>571</v>
       </c>
+      <c r="B466" s="7" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="467" ht="18.0" customHeight="1">
-      <c r="A467" s="14" t="s">
+      <c r="A467" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="B467" s="6" t="s">
-        <v>486</v>
+      <c r="B467" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="468" ht="18.0" customHeight="1">
-      <c r="A468" s="6" t="s">
+      <c r="A468" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B468" s="6" t="s">
+      <c r="B468" s="4" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="469" ht="18.0" customHeight="1">
-      <c r="A469" s="6" t="s">
+      <c r="A469" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B469" s="6" t="s">
+      <c r="B469" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="470" ht="18.0" customHeight="1">
+      <c r="A470" s="4" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="470" ht="18.0" customHeight="1">
-      <c r="A470" s="6" t="s">
+      <c r="B470" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" ht="18.0" customHeight="1">
+      <c r="A471" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B470" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="471" ht="18.0" customHeight="1">
-      <c r="A471" s="6" t="s">
+      <c r="B471" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="472" ht="18.0" customHeight="1">
+      <c r="A472" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="B471" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="472" ht="18.0" customHeight="1">
-      <c r="A472" s="6" t="s">
+      <c r="B472" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B472" s="6" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="473" ht="18.0" customHeight="1">
-      <c r="A473" s="6" t="s">
+      <c r="A473" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="B473" s="6" t="s">
+      <c r="B473" s="4" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="474" ht="18.0" customHeight="1">
-      <c r="A474" s="6" t="s">
+      <c r="A474" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B474" s="6" t="s">
+      <c r="B474" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="475" ht="18.0" customHeight="1">
+      <c r="A475" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="476" ht="18.0" customHeight="1">
+      <c r="A476" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="477" ht="18.0" customHeight="1">
+      <c r="A477" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="478" ht="18.0" customHeight="1">
+      <c r="A478" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="479" ht="18.0" customHeight="1">
+      <c r="A479" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="480" ht="18.0" customHeight="1">
+      <c r="A480" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="481" ht="18.0" customHeight="1">
+      <c r="A481" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="482" ht="18.0" customHeight="1">
+      <c r="A482" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="483" ht="18.0" customHeight="1">
+      <c r="A483" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="484" ht="18.0" customHeight="1">
+      <c r="A484" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="485" ht="18.0" customHeight="1">
+      <c r="A485" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="486" ht="18.0" customHeight="1">
+      <c r="A486" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="487" ht="18.0" customHeight="1">
+      <c r="A487" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="488" ht="18.0" customHeight="1">
+      <c r="A488" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="489" ht="18.0" customHeight="1">
+      <c r="A489" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="490" ht="18.0" customHeight="1">
+      <c r="A490" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B490" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="491" ht="18.0" customHeight="1">
+      <c r="A491" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B491" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="492" ht="18.0" customHeight="1">
+      <c r="A492" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="493" ht="18.0" customHeight="1">
+      <c r="A493" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B493" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="494" ht="18.0" customHeight="1">
+      <c r="A494" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B494" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="495" ht="18.0" customHeight="1">
+      <c r="A495" s="7" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="475" ht="18.0" customHeight="1">
-      <c r="A475" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="476" ht="18.0" customHeight="1">
-      <c r="A476" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="477" ht="18.0" customHeight="1">
-      <c r="A477" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="478" ht="18.0" customHeight="1">
-      <c r="A478" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="479" ht="18.0" customHeight="1">
-      <c r="A479" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="480" ht="18.0" customHeight="1">
-      <c r="A480" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="481" ht="18.0" customHeight="1">
-      <c r="A481" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="482" ht="18.0" customHeight="1">
-      <c r="A482" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="B482" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="483" ht="18.0" customHeight="1">
-      <c r="A483" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="484" ht="18.0" customHeight="1">
-      <c r="A484" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="B484" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="485" ht="18.0" customHeight="1">
-      <c r="A485" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="486" ht="18.0" customHeight="1">
-      <c r="A486" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="B486" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="487" ht="18.0" customHeight="1">
-      <c r="A487" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="488" ht="18.0" customHeight="1">
-      <c r="A488" s="6" t="s">
+      <c r="B495" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="496" ht="18.0" customHeight="1">
+      <c r="A496" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B496" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="B488" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="489" ht="18.0" customHeight="1">
-      <c r="A489" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="490" ht="18.0" customHeight="1">
-      <c r="A490" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B490" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="491" ht="18.0" customHeight="1">
-      <c r="A491" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B491" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="492" ht="18.0" customHeight="1">
-      <c r="A492" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="493" ht="18.0" customHeight="1">
-      <c r="A493" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="494" ht="18.0" customHeight="1">
-      <c r="A494" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="B494" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="495" ht="18.0" customHeight="1">
-      <c r="A495" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B495" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="496" ht="18.0" customHeight="1">
-      <c r="A496" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="B496" s="6" t="s">
-        <v>605</v>
-      </c>
     </row>
     <row r="497" ht="18.0" customHeight="1">
-      <c r="A497" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="B497" s="6" t="s">
-        <v>605</v>
-      </c>
+      <c r="A497" s="4"/>
+      <c r="B497" s="4"/>
     </row>
     <row r="498" ht="18.0" customHeight="1">
-      <c r="A498" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B498" s="6" t="s">
-        <v>611</v>
-      </c>
+      <c r="A498" s="4"/>
+      <c r="B498" s="4"/>
     </row>
     <row r="499" ht="18.0" customHeight="1">
-      <c r="A499" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="B499" s="6" t="s">
-        <v>611</v>
-      </c>
+      <c r="A499" s="4"/>
+      <c r="B499" s="4"/>
     </row>
     <row r="500" ht="18.0" customHeight="1">
       <c r="A500" s="4"/>
@@ -6967,50 +6948,17 @@
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
     </row>
-    <row r="609" ht="18.0" customHeight="1">
-      <c r="A609" s="4"/>
-      <c r="B609" s="4"/>
-    </row>
-    <row r="610" ht="18.0" customHeight="1">
-      <c r="A610" s="4"/>
-      <c r="B610" s="4"/>
-    </row>
-    <row r="611" ht="18.0" customHeight="1">
-      <c r="A611" s="4"/>
-      <c r="B611" s="4"/>
-    </row>
-    <row r="612" ht="18.0" customHeight="1">
-      <c r="A612" s="4"/>
-      <c r="B612" s="4"/>
-    </row>
-    <row r="613" ht="18.0" customHeight="1">
-      <c r="A613" s="4"/>
-      <c r="B613" s="4"/>
-    </row>
-    <row r="614" ht="18.0" customHeight="1">
-      <c r="A614" s="4"/>
-      <c r="B614" s="4"/>
-    </row>
-    <row r="615" ht="18.0" customHeight="1">
-      <c r="A615" s="4"/>
-      <c r="B615" s="4"/>
-    </row>
-    <row r="616" ht="18.0" customHeight="1">
-      <c r="A616" s="4"/>
-      <c r="B616" s="4"/>
-    </row>
-    <row r="617" ht="18.0" customHeight="1">
-      <c r="A617" s="4"/>
-      <c r="B617" s="4"/>
-    </row>
-    <row r="618" ht="18.0" customHeight="1">
-      <c r="A618" s="4"/>
-      <c r="B618" s="4"/>
-    </row>
-    <row r="619" ht="18.0" customHeight="1">
-      <c r="A619" s="4"/>
-      <c r="B619" s="4"/>
-    </row>
+    <row r="609" ht="18.0" customHeight="1"/>
+    <row r="610" ht="18.0" customHeight="1"/>
+    <row r="611" ht="18.0" customHeight="1"/>
+    <row r="612" ht="18.0" customHeight="1"/>
+    <row r="613" ht="18.0" customHeight="1"/>
+    <row r="614" ht="18.0" customHeight="1"/>
+    <row r="615" ht="18.0" customHeight="1"/>
+    <row r="616" ht="18.0" customHeight="1"/>
+    <row r="617" ht="18.0" customHeight="1"/>
+    <row r="618" ht="18.0" customHeight="1"/>
+    <row r="619" ht="18.0" customHeight="1"/>
     <row r="620" ht="18.0" customHeight="1"/>
     <row r="621" ht="18.0" customHeight="1"/>
     <row r="622" ht="18.0" customHeight="1"/>
@@ -7422,17 +7370,6 @@
     <row r="1028" ht="18.0" customHeight="1"/>
     <row r="1029" ht="18.0" customHeight="1"/>
     <row r="1030" ht="18.0" customHeight="1"/>
-    <row r="1031" ht="18.0" customHeight="1"/>
-    <row r="1032" ht="18.0" customHeight="1"/>
-    <row r="1033" ht="18.0" customHeight="1"/>
-    <row r="1034" ht="18.0" customHeight="1"/>
-    <row r="1035" ht="18.0" customHeight="1"/>
-    <row r="1036" ht="18.0" customHeight="1"/>
-    <row r="1037" ht="18.0" customHeight="1"/>
-    <row r="1038" ht="18.0" customHeight="1"/>
-    <row r="1039" ht="18.0" customHeight="1"/>
-    <row r="1040" ht="18.0" customHeight="1"/>
-    <row r="1041" ht="18.0" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
